--- a/analise_curva_abc/analises_prontas/ordem/normal/divisao_classe_c_final.xlsx
+++ b/analise_curva_abc/analises_prontas/ordem/normal/divisao_classe_c_final.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estoque\Documents\estoque.renan\automação\analise_curva_ABC\analise_curva_ABC\analises_prontas\ordem\normal\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B733939E-B5AC-4ABD-92AB-2594268DE9E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -394,8 +388,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -447,33 +441,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -511,7 +496,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -545,7 +530,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -580,10 +564,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -756,20 +739,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A22" activeCellId="1" sqref="A1:G21 A22:G41"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="20" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -792,928 +769,927 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" t="s">
         <v>87</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" t="s">
         <v>88</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" t="s">
         <v>89</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" t="s">
         <v>91</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" t="s">
         <v>92</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" t="s">
         <v>94</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" t="s">
         <v>77</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" t="s">
         <v>79</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" t="s">
         <v>98</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" t="s">
         <v>99</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" t="s">
         <v>100</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" t="s">
         <v>82</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" t="s">
         <v>101</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" t="s">
         <v>83</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" t="s">
         <v>102</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" t="s">
         <v>84</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" t="s">
         <v>103</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" t="s">
         <v>85</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" t="s">
         <v>104</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>1</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22">
         <v>14326</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22">
         <v>11981</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22">
         <v>10976</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22">
         <v>10122</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22">
         <v>11322</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22">
         <v>11323</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>2</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23">
         <v>101912</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23">
         <v>11188</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23">
         <v>440409</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23">
         <v>102433</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23">
         <v>63626</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23">
         <v>500079</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>3</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24">
         <v>101165</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24">
         <v>2230</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24">
         <v>133736</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24">
         <v>12750</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24">
         <v>62984</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24">
         <v>101227</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>4</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25">
         <v>63596</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25">
         <v>14580</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25">
         <v>11794</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25">
         <v>10218</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25">
         <v>10496</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25">
         <v>10409</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>5</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26">
         <v>500801</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26">
         <v>102424</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26">
         <v>10408</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26">
         <v>11012</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26">
         <v>10757</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26">
         <v>11065</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>6</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27">
         <v>14903</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27">
         <v>12578</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27">
         <v>14121</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27">
         <v>63595</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27">
         <v>102425</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27">
         <v>408527</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>7</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28">
         <v>101823</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28">
         <v>14638</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28">
         <v>60273</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28">
         <v>136705</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28">
         <v>10651</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28">
         <v>19152</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>8</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29">
         <v>11773</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29">
         <v>234131</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29">
         <v>10120</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29">
         <v>10982</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29">
         <v>12579</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29">
         <v>10427</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>9</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30">
         <v>2227</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30">
         <v>16353</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30">
         <v>102605</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30">
         <v>12870</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30">
         <v>11028</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30">
         <v>10115</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>10</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31">
         <v>231497</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31">
         <v>101905</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31">
         <v>690073</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31">
         <v>440484</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31">
         <v>14545</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31">
         <v>62999</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>11</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32">
         <v>11187</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32">
         <v>10117</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32">
         <v>101071</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32">
         <v>50066</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32">
         <v>12093</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32">
         <v>12896</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>12</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33">
         <v>103022</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33">
         <v>62470</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33">
         <v>11253</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33">
         <v>11259</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33">
         <v>231145</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33">
         <v>10144</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>13</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34">
         <v>922092</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34">
         <v>10519</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34">
         <v>10663</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34">
         <v>10415</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34">
         <v>11349</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34">
         <v>14070</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>14</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35">
         <v>102572</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35">
         <v>12080</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35">
         <v>14034</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35">
         <v>11024</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35">
         <v>10424</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35">
         <v>10960</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>15</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36">
         <v>10121</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36">
         <v>11145</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36">
         <v>10980</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36">
         <v>14512</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36">
         <v>232026</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36">
         <v>63508</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>16</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37">
         <v>10090</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37">
         <v>1111</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37">
         <v>10817</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37">
         <v>231222</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37">
         <v>101838</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37">
         <v>10373</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>17</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38">
         <v>101956</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38">
         <v>369897</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38">
         <v>14610</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38">
         <v>101323</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38">
         <v>12208</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38">
         <v>231301</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>18</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39">
         <v>1898</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39">
         <v>101906</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39">
         <v>61888</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39">
         <v>760039</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39">
         <v>10377</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39">
         <v>10957</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>19</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40">
         <v>10454</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40">
         <v>1117</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40">
         <v>101367</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40">
         <v>450760</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40">
         <v>62342</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40">
         <v>450326</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>20</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41">
         <v>130042</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41">
         <v>12011</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41">
         <v>661576</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41">
         <v>63594</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41">
         <v>233002</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41">
         <v>14263</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>